--- a/Jérémie/Journal_Travail_Jeremie.xlsx
+++ b/Jérémie/Journal_Travail_Jeremie.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -36,13 +36,29 @@
     <t>Journal de travail</t>
   </si>
   <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>blablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablabla</t>
-  </si>
-  <si>
     <t>Constitution des groupes et réalisation d'un "pré-cahier des charges"</t>
+  </si>
+  <si>
+    <t>Premier jet du "pré-cahier des charges"</t>
+  </si>
+  <si>
+    <t>Finalisation du "pré-cahier des charges"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retour et échanges  avec le professeur à propos de notre proposition de projet et organisation entre nous.
+</t>
+  </si>
+  <si>
+    <t>Création de la planification</t>
+  </si>
+  <si>
+    <t>Finalisation du gantt et de la planification</t>
+  </si>
+  <si>
+    <t>Spécifications de notre projet, définition des souhaits de chacun, choix des outils à implémenter, schéma de Dépendances Fonctionnelles afin d'organiser l'ordre d'implémentation de chaque fonctionnalité et début de la rédaction du cahier des charges.</t>
+  </si>
+  <si>
+    <t>Jérémie Châtillon</t>
   </si>
 </sst>
 </file>
@@ -443,7 +459,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +474,7 @@
     </row>
     <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -481,13 +497,13 @@
         <v>43150</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>43152</v>
       </c>
@@ -495,33 +511,63 @@
         <v>6</v>
       </c>
       <c r="C6" s="8">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
+      <c r="A7" s="3">
+        <v>43153</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>43157</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>43158</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="3">
+        <v>43161</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -629,7 +675,7 @@
       </c>
       <c r="C32" s="9">
         <f>SUM(C5:C31)</f>
-        <v>3.25</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
